--- a/biology/Botanique/Vive_la_rose/Vive_la_rose.xlsx
+++ b/biology/Botanique/Vive_la_rose/Vive_la_rose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Vive la rose est une chanson française traditionnelle du XVIIIe siècle, sur le thème de l'amour volage. La chanson est connue sous d'autres titres comme Mon amant me délaisse ou La Méchante.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Vive la rose est une chanson populaire, gaie et rythmée, elle concerne la conduite de l'homme volage et celle à tenir pour la femme trompée. 
 C'était les lavandières qui chantaient en chœur cette histoire d'une femme qui est trompée par un amant infidèle sans pour autant rompre avec elle. 
@@ -546,7 +560,9 @@
           <t>Interprétations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Vive la rose a été interprétée notamment par Émile Benoît, Guy Béart en 1966, Luciano Noel Winderling en 1972, Cora Vaucaire en 1975, Nana Mouskouri en 1978, Dorothée en 1982 dans le cadre de l'émission Discopuce de Récré A2 et de la série de disques Le jardin des chansons allant avec, par Mes souliers sont rouges lors d'un album live en 2000.
 </t>
@@ -577,7 +593,9 @@
           <t>Paroles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(Chaque couplet est répété une fois)
 Mon amant me délaisse
